--- a/biology/Botanique/Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais/Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais.xlsx
+++ b/biology/Botanique/Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais/Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ces_v%C3%A9g%C3%A9tales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
+          <t>Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces exotiques envahissantes ont pour conséquences d’affaiblir les écosystèmes et donc la biodiversité. Les activités humaines sont la principale cause d’apparition de ces plantes. En effet, les échanges commerciaux, de plus en plus nombreux, permettent le déplacement d’espèces étrangères vers des territoires totalement nouveaux. De plus, la demande des consommateurs en plantes spectaculaires a poussé les jardineries à importer des plantes exotiques d’origines géographiques très diverses.
 Ces plantes connaissent un développement important en Nord-Pas-de-Calais en modifiant l’écosystème dans lequel elles s’implantent.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ces_v%C3%A9g%C3%A9tales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
+          <t>Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une étude a été lancée, en février 2010, par le conservatoire d'espaces naturels du Nord et du Pas-de-Calais pour identifier les espèces ou les groupes d’espèces les plus envahissantes, avec deux grands objectifs :
 acquérir des connaissances sur l’écologie des espèces envahissantes, via des recherches bibliographiques ;
 rechercher des méthodes de lutte mises en place en France et dans le monde.
-Dans le même temps, un questionnaire a été envoyé à de nombreux acteurs de la région (conservatoire botanique national de Bailleul (CBNB), parcs naturels régionaux) pour réaliser un état des lieux, notamment un recensement et une localisation de ces espèces[1]. 
-L’agence de l'eau Artois-Picardie a rédigé un document « Les espèces végétales invasives des milieux aquatiques et humides du bassin Artois-Picardie »[2].
+Dans le même temps, un questionnaire a été envoyé à de nombreux acteurs de la région (conservatoire botanique national de Bailleul (CBNB), parcs naturels régionaux) pour réaliser un état des lieux, notamment un recensement et une localisation de ces espèces. 
+L’agence de l'eau Artois-Picardie a rédigé un document « Les espèces végétales invasives des milieux aquatiques et humides du bassin Artois-Picardie ».
 Le tableau ci-dessous synthétise quelques données de ce rapport.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esp%C3%A8ces_v%C3%A9g%C3%A9tales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
+          <t>Espèces_végétales_exotiques_envahissantes_en_Nord-Pas-de-Calais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’article L.411-3 du code de l'environnement interdit l’introduction et la commercialisation d’espèces végétales et animales non indigène. 
 Le décret d’application du 4 janvier 2007 prévoit la préparation d'un arrêté ministériel fixant les espèces soumises à l’article L 411-3.
